--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Omg-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Omg-Lingo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.806361333333333</v>
+        <v>1.75219</v>
       </c>
       <c r="H2">
-        <v>5.419084</v>
+        <v>5.25657</v>
       </c>
       <c r="I2">
-        <v>0.1438280610620411</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="J2">
-        <v>0.1547213049676104</v>
+        <v>0.1418982611249563</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.416004</v>
       </c>
       <c r="O2">
-        <v>0.4407629788086163</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5417522913557481</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2504845133706666</v>
+        <v>0.24297268292</v>
       </c>
       <c r="R2">
-        <v>2.254360620336</v>
+        <v>2.18675414628</v>
       </c>
       <c r="S2">
-        <v>0.0633940846299728</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="T2">
-        <v>0.08382062148775442</v>
+        <v>0.1418982611249563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.806361333333333</v>
+        <v>2.026462666666667</v>
       </c>
       <c r="H3">
-        <v>5.419084</v>
+        <v>6.079388</v>
       </c>
       <c r="I3">
-        <v>0.1438280610620411</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="J3">
-        <v>0.1547213049676104</v>
+        <v>0.1641097875428132</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.175941</v>
+        <v>0.138668</v>
       </c>
       <c r="N3">
-        <v>0.351882</v>
+        <v>0.416004</v>
       </c>
       <c r="O3">
-        <v>0.5592370211913836</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4582477086442518</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.317813019348</v>
+        <v>0.2810055250613333</v>
       </c>
       <c r="R3">
-        <v>1.906878116088</v>
+        <v>2.529049725552</v>
       </c>
       <c r="S3">
-        <v>0.0804339764320683</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="T3">
-        <v>0.07090068347985597</v>
+        <v>0.1641097875428132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.026462666666667</v>
+        <v>4.488144</v>
       </c>
       <c r="H4">
-        <v>6.079388</v>
+        <v>13.464432</v>
       </c>
       <c r="I4">
-        <v>0.1613532081222288</v>
+        <v>0.3450144550883694</v>
       </c>
       <c r="J4">
-        <v>0.1735737709111781</v>
+        <v>0.3634650518941472</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.416004</v>
       </c>
       <c r="O4">
-        <v>0.4407629788086163</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5417522913557481</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2810055250613333</v>
+        <v>0.622361952192</v>
       </c>
       <c r="R4">
-        <v>2.529049725552</v>
+        <v>5.601257569728</v>
       </c>
       <c r="S4">
-        <v>0.07111852065228018</v>
+        <v>0.3450144550883694</v>
       </c>
       <c r="T4">
-        <v>0.09403398811038846</v>
+        <v>0.3634650518941472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.026462666666667</v>
+        <v>1.981064</v>
       </c>
       <c r="H5">
-        <v>6.079388</v>
+        <v>3.962128</v>
       </c>
       <c r="I5">
-        <v>0.1613532081222288</v>
+        <v>0.152289168185153</v>
       </c>
       <c r="J5">
-        <v>0.1735737709111781</v>
+        <v>0.1069555001749241</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.175941</v>
+        <v>0.138668</v>
       </c>
       <c r="N5">
-        <v>0.351882</v>
+        <v>0.416004</v>
       </c>
       <c r="O5">
-        <v>0.5592370211913836</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.4582477086442518</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.356537868036</v>
+        <v>0.274710182752</v>
       </c>
       <c r="R5">
-        <v>2.139227208216</v>
+        <v>1.648261096512</v>
       </c>
       <c r="S5">
-        <v>0.09023468746994859</v>
+        <v>0.152289168185153</v>
       </c>
       <c r="T5">
-        <v>0.07953978280078969</v>
+        <v>0.1069555001749241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.997459000000001</v>
+        <v>2.760707333333334</v>
       </c>
       <c r="H6">
-        <v>8.992377000000001</v>
+        <v>8.282122000000001</v>
       </c>
       <c r="I6">
-        <v>0.2386669312099415</v>
+        <v>0.2122222317885668</v>
       </c>
       <c r="J6">
-        <v>0.2567430776494193</v>
+        <v>0.2235713992631593</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,332 +812,22 @@
         <v>0.416004</v>
       </c>
       <c r="O6">
-        <v>0.4407629788086163</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.5417522913557481</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.415651644612</v>
+        <v>0.3828217644986667</v>
       </c>
       <c r="R6">
-        <v>3.740864801508</v>
+        <v>3.445395880488</v>
       </c>
       <c r="S6">
-        <v>0.1051955475432049</v>
+        <v>0.2122222317885668</v>
       </c>
       <c r="T6">
-        <v>0.1390911506062996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.997459000000001</v>
-      </c>
-      <c r="H7">
-        <v>8.992377000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.2386669312099415</v>
-      </c>
-      <c r="J7">
-        <v>0.2567430776494193</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.175941</v>
-      </c>
-      <c r="N7">
-        <v>0.351882</v>
-      </c>
-      <c r="O7">
-        <v>0.5592370211913836</v>
-      </c>
-      <c r="P7">
-        <v>0.4582477086442518</v>
-      </c>
-      <c r="Q7">
-        <v>0.5273759339190002</v>
-      </c>
-      <c r="R7">
-        <v>3.164255603514001</v>
-      </c>
-      <c r="S7">
-        <v>0.1334713836667365</v>
-      </c>
-      <c r="T7">
-        <v>0.1176519270431196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.6527075</v>
-      </c>
-      <c r="H8">
-        <v>5.305415</v>
-      </c>
-      <c r="I8">
-        <v>0.2112167533976597</v>
-      </c>
-      <c r="J8">
-        <v>0.1514759195824857</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.138668</v>
-      </c>
-      <c r="N8">
-        <v>0.416004</v>
-      </c>
-      <c r="O8">
-        <v>0.4407629788086163</v>
-      </c>
-      <c r="P8">
-        <v>0.5417522913557481</v>
-      </c>
-      <c r="Q8">
-        <v>0.3678456436099999</v>
-      </c>
-      <c r="R8">
-        <v>2.20707386166</v>
-      </c>
-      <c r="S8">
-        <v>0.09309652540183741</v>
-      </c>
-      <c r="T8">
-        <v>0.08206242651903063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.6527075</v>
-      </c>
-      <c r="H9">
-        <v>5.305415</v>
-      </c>
-      <c r="I9">
-        <v>0.2112167533976597</v>
-      </c>
-      <c r="J9">
-        <v>0.1514759195824857</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-      <c r="M9">
-        <v>0.175941</v>
-      </c>
-      <c r="N9">
-        <v>0.351882</v>
-      </c>
-      <c r="O9">
-        <v>0.5592370211913836</v>
-      </c>
-      <c r="P9">
-        <v>0.4582477086442518</v>
-      </c>
-      <c r="Q9">
-        <v>0.4667200102575</v>
-      </c>
-      <c r="R9">
-        <v>1.86688004103</v>
-      </c>
-      <c r="S9">
-        <v>0.1181202279958223</v>
-      </c>
-      <c r="T9">
-        <v>0.06941349306345501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.076181333333333</v>
-      </c>
-      <c r="H10">
-        <v>9.228543999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.2449350462081291</v>
-      </c>
-      <c r="J10">
-        <v>0.2634859268893066</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.138668</v>
-      </c>
-      <c r="N10">
-        <v>0.416004</v>
-      </c>
-      <c r="O10">
-        <v>0.4407629788086163</v>
-      </c>
-      <c r="P10">
-        <v>0.5417522913557481</v>
-      </c>
-      <c r="Q10">
-        <v>0.4265679131306666</v>
-      </c>
-      <c r="R10">
-        <v>3.839111218175999</v>
-      </c>
-      <c r="S10">
-        <v>0.1079583005813211</v>
-      </c>
-      <c r="T10">
-        <v>0.1427441046322749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.076181333333333</v>
-      </c>
-      <c r="H11">
-        <v>9.228543999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.2449350462081291</v>
-      </c>
-      <c r="J11">
-        <v>0.2634859268893066</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.175941</v>
-      </c>
-      <c r="N11">
-        <v>0.351882</v>
-      </c>
-      <c r="O11">
-        <v>0.5592370211913836</v>
-      </c>
-      <c r="P11">
-        <v>0.4582477086442518</v>
-      </c>
-      <c r="Q11">
-        <v>0.541226419968</v>
-      </c>
-      <c r="R11">
-        <v>3.247358519808</v>
-      </c>
-      <c r="S11">
-        <v>0.136976745626808</v>
-      </c>
-      <c r="T11">
-        <v>0.1207418222570316</v>
+        <v>0.2235713992631593</v>
       </c>
     </row>
   </sheetData>
